--- a/src/data/F&CMA.xlsx
+++ b/src/data/F&CMA.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
   <si>
     <t>LastName</t>
   </si>
@@ -145,13 +145,16 @@
     <t>Nyshekia Chambers</t>
   </si>
   <si>
-    <t>Oo-PerezL</t>
+    <t>Oo - L. Perez</t>
   </si>
   <si>
     <t>TRNG Constance Jackson</t>
   </si>
   <si>
-    <t>PrezM-Ramos</t>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>M. Perez - Ramos</t>
   </si>
   <si>
     <t>TRNG Freda Allen</t>
@@ -460,6 +463,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -838,35 +844,35 @@
         <v>33</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -875,18 +881,15 @@
         <v>1596.0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -895,7 +898,7 @@
         <v>1423.0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -903,10 +906,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -915,7 +918,7 @@
         <v>1732.0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>8</v>
@@ -923,10 +926,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
@@ -935,7 +938,7 @@
         <v>1693.0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
@@ -943,10 +946,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -955,7 +958,7 @@
         <v>1775.0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>8</v>
@@ -963,10 +966,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -975,7 +978,7 @@
         <v>1749.0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>8</v>
